--- a/Code/Results/Cases/Case_1_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_170/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.90726397962244</v>
+        <v>9.596329634041382</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.06629568971303</v>
+        <v>7.847387925946922</v>
       </c>
       <c r="E2">
-        <v>7.698532126086757</v>
+        <v>11.9118966710953</v>
       </c>
       <c r="F2">
-        <v>35.53408165187867</v>
+        <v>37.87901270813921</v>
       </c>
       <c r="G2">
-        <v>56.45660044880179</v>
+        <v>46.94130587132261</v>
       </c>
       <c r="H2">
-        <v>14.56974486808779</v>
+        <v>17.89236940006412</v>
       </c>
       <c r="I2">
-        <v>28.97665878377825</v>
+        <v>22.711319792529</v>
       </c>
       <c r="J2">
-        <v>4.857421256757411</v>
+        <v>9.307506806713441</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>41.97801377405318</v>
+        <v>29.9279915337514</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.98879835190039</v>
+        <v>9.173258789433474</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.891783176134131</v>
+        <v>7.810326985520167</v>
       </c>
       <c r="E3">
-        <v>7.677369037350769</v>
+        <v>11.93703004693193</v>
       </c>
       <c r="F3">
-        <v>33.42115656190055</v>
+        <v>37.73774504488436</v>
       </c>
       <c r="G3">
-        <v>52.47541137626944</v>
+        <v>46.25926200953842</v>
       </c>
       <c r="H3">
-        <v>13.85857055314745</v>
+        <v>17.87754352438132</v>
       </c>
       <c r="I3">
-        <v>27.41568655487728</v>
+        <v>22.17744026971472</v>
       </c>
       <c r="J3">
-        <v>4.993160655354896</v>
+        <v>9.358804115323196</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>39.1216026983188</v>
+        <v>28.76838881605268</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.39452949310024</v>
+        <v>8.902469131019926</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.783601532809335</v>
+        <v>7.78741155923098</v>
       </c>
       <c r="E4">
-        <v>7.667820235050842</v>
+        <v>11.95434399973242</v>
       </c>
       <c r="F4">
-        <v>32.14088297626705</v>
+        <v>37.66856512642453</v>
       </c>
       <c r="G4">
-        <v>50.00345294871347</v>
+        <v>45.86136672078449</v>
       </c>
       <c r="H4">
-        <v>13.43430669549535</v>
+        <v>17.87516887825283</v>
       </c>
       <c r="I4">
-        <v>26.43305460218379</v>
+        <v>21.84971307132503</v>
       </c>
       <c r="J4">
-        <v>5.079171329512604</v>
+        <v>9.391955545518341</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>37.269187057464</v>
+        <v>28.0311666719889</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.1446814762789</v>
+        <v>8.78946025951371</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.739251373950105</v>
+        <v>7.778035479297832</v>
       </c>
       <c r="E5">
-        <v>7.664794523674137</v>
+        <v>11.9618736521008</v>
       </c>
       <c r="F5">
-        <v>31.62358360042047</v>
+        <v>37.64478074656034</v>
       </c>
       <c r="G5">
-        <v>48.98918164610014</v>
+        <v>45.70467724289239</v>
       </c>
       <c r="H5">
-        <v>13.26452526728823</v>
+        <v>17.87588356724648</v>
       </c>
       <c r="I5">
-        <v>26.02687012769915</v>
+        <v>21.71640672218503</v>
       </c>
       <c r="J5">
-        <v>5.114895480698584</v>
+        <v>9.405882251024639</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>36.48920425391631</v>
+        <v>27.72476649264869</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.10272937678745</v>
+        <v>8.77053817205319</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.73187101282115</v>
+        <v>7.776476369590624</v>
       </c>
       <c r="E6">
-        <v>7.664344326062082</v>
+        <v>11.96315260211498</v>
       </c>
       <c r="F6">
-        <v>31.53796053908682</v>
+        <v>37.64109713832853</v>
       </c>
       <c r="G6">
-        <v>48.82035073942244</v>
+        <v>45.67899425202508</v>
       </c>
       <c r="H6">
-        <v>13.23652146586739</v>
+        <v>17.87610353904637</v>
       </c>
       <c r="I6">
-        <v>25.95908758175479</v>
+        <v>21.69429285050338</v>
       </c>
       <c r="J6">
-        <v>5.1208683015377</v>
+        <v>9.408220003314021</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>36.3581632391683</v>
+        <v>27.67353959582947</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.39119110510665</v>
+        <v>8.900955663553747</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.78300448748728</v>
+        <v>7.787285260359809</v>
       </c>
       <c r="E7">
-        <v>7.667775927106645</v>
+        <v>11.95444362663496</v>
       </c>
       <c r="F7">
-        <v>32.13388829509227</v>
+        <v>37.66822653505635</v>
       </c>
       <c r="G7">
-        <v>49.98980194050288</v>
+        <v>45.85923120218094</v>
       </c>
       <c r="H7">
-        <v>13.43200435670489</v>
+        <v>17.87517171877072</v>
       </c>
       <c r="I7">
-        <v>26.42759944483713</v>
+        <v>21.84791395894061</v>
       </c>
       <c r="J7">
-        <v>5.079650382396204</v>
+        <v>9.392141675048563</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>37.2587700094582</v>
+        <v>28.02705813327772</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.59683531498172</v>
+        <v>9.45280450203725</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.006331174370678</v>
+        <v>7.834643900507891</v>
       </c>
       <c r="E8">
-        <v>7.690519943974127</v>
+        <v>11.9201725733219</v>
       </c>
       <c r="F8">
-        <v>34.80202390674201</v>
+        <v>37.82665666855829</v>
       </c>
       <c r="G8">
-        <v>55.08946942688889</v>
+        <v>46.70193124954226</v>
       </c>
       <c r="H8">
-        <v>14.32193950509017</v>
+        <v>17.88585570704038</v>
       </c>
       <c r="I8">
-        <v>28.44362136651677</v>
+        <v>22.52735521546734</v>
       </c>
       <c r="J8">
-        <v>4.903672511465226</v>
+        <v>9.324851380234985</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>41.01337849800208</v>
+        <v>29.53360128079446</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.72359108719045</v>
+        <v>10.44341174515645</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.436914717054651</v>
+        <v>7.926143913846621</v>
       </c>
       <c r="E9">
-        <v>7.762416422284322</v>
+        <v>11.86786178624856</v>
       </c>
       <c r="F9">
-        <v>40.27319475794138</v>
+        <v>38.2766472741239</v>
       </c>
       <c r="G9">
-        <v>65.07611614234344</v>
+        <v>48.51035149687426</v>
       </c>
       <c r="H9">
-        <v>16.22319159927771</v>
+        <v>17.96054065678829</v>
       </c>
       <c r="I9">
-        <v>32.19596599936535</v>
+        <v>23.85085537357724</v>
       </c>
       <c r="J9">
-        <v>4.579681547672283</v>
+        <v>9.205972277547968</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>47.61015143096031</v>
+        <v>32.27389189080321</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.14671801713998</v>
+        <v>11.11087104498522</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.75092364218829</v>
+        <v>7.992399254050572</v>
       </c>
       <c r="E10">
-        <v>7.831677833701618</v>
+        <v>11.8384570016868</v>
       </c>
       <c r="F10">
-        <v>44.68382339747512</v>
+        <v>38.69162054632616</v>
       </c>
       <c r="G10">
-        <v>72.34160340473825</v>
+        <v>49.92004175892642</v>
       </c>
       <c r="H10">
-        <v>18.00886776898004</v>
+        <v>18.04852271078686</v>
       </c>
       <c r="I10">
-        <v>34.82531390586193</v>
+        <v>24.80582862285623</v>
       </c>
       <c r="J10">
-        <v>4.354689573533683</v>
+        <v>9.12653119815162</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>52.01516173872515</v>
+        <v>34.14083581628081</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.76535468378514</v>
+        <v>11.40069902186998</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.894106851533312</v>
+        <v>8.02230108982735</v>
       </c>
       <c r="E11">
-        <v>7.866659295958992</v>
+        <v>11.82702849641727</v>
       </c>
       <c r="F11">
-        <v>46.70668478802254</v>
+        <v>38.8984355465104</v>
       </c>
       <c r="G11">
-        <v>75.6497223390933</v>
+        <v>50.57581542848442</v>
       </c>
       <c r="H11">
-        <v>18.82373782969693</v>
+        <v>18.09577415239711</v>
       </c>
       <c r="I11">
-        <v>35.99478501672967</v>
+        <v>25.23419270438996</v>
       </c>
       <c r="J11">
-        <v>4.255316646086407</v>
+        <v>9.092091459741027</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>53.92991854632936</v>
+        <v>34.95573371323803</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.99562902845192</v>
+        <v>11.50841786426322</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.94847959349225</v>
+        <v>8.033587358904832</v>
       </c>
       <c r="E12">
-        <v>7.88039238521444</v>
+        <v>11.82297986671853</v>
       </c>
       <c r="F12">
-        <v>47.47671762665461</v>
+        <v>38.97930953899657</v>
       </c>
       <c r="G12">
-        <v>76.90564807725509</v>
+        <v>50.82595957760634</v>
       </c>
       <c r="H12">
-        <v>19.13335483848907</v>
+        <v>18.11470623746566</v>
       </c>
       <c r="I12">
-        <v>36.43401928388013</v>
+        <v>25.39535805210319</v>
       </c>
       <c r="J12">
-        <v>4.218138780646361</v>
+        <v>9.079293140830437</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>54.64284327128236</v>
+        <v>35.25918984104987</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.94621023167897</v>
+        <v>11.48530976476248</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.936760648989096</v>
+        <v>8.031158343043151</v>
       </c>
       <c r="E13">
-        <v>7.87741334505135</v>
+        <v>11.82383941510549</v>
       </c>
       <c r="F13">
-        <v>47.31066691971287</v>
+        <v>38.96177878583146</v>
       </c>
       <c r="G13">
-        <v>76.63496675295585</v>
+        <v>50.77201000240821</v>
       </c>
       <c r="H13">
-        <v>19.06661406946317</v>
+        <v>18.11058269133033</v>
       </c>
       <c r="I13">
-        <v>36.33957874701167</v>
+        <v>25.36069742270268</v>
       </c>
       <c r="J13">
-        <v>4.226125062804837</v>
+        <v>9.082038683751742</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>54.48983082035945</v>
+        <v>35.1940658441995</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.78437854696413</v>
+        <v>11.40960209946328</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.89857635887656</v>
+        <v>8.023230372991586</v>
       </c>
       <c r="E14">
-        <v>7.867779469225653</v>
+        <v>11.82668982561478</v>
       </c>
       <c r="F14">
-        <v>46.76994408804116</v>
+        <v>38.90503807520692</v>
       </c>
       <c r="G14">
-        <v>75.75296511983443</v>
+        <v>50.59636005454512</v>
       </c>
       <c r="H14">
-        <v>18.84918475102271</v>
+        <v>18.09731089257746</v>
       </c>
       <c r="I14">
-        <v>36.03099201604555</v>
+        <v>25.24747381292164</v>
       </c>
       <c r="J14">
-        <v>4.252248751671386</v>
+        <v>9.091033664457097</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>53.98881062491066</v>
+        <v>34.98080296113932</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.68473703962646</v>
+        <v>11.36296296900496</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.875210882471277</v>
+        <v>8.018369376525964</v>
       </c>
       <c r="E15">
-        <v>7.861941315428275</v>
+        <v>11.82847210043459</v>
       </c>
       <c r="F15">
-        <v>46.43931651230906</v>
+        <v>38.87061462050481</v>
       </c>
       <c r="G15">
-        <v>75.21322725157724</v>
+        <v>50.48899807316653</v>
       </c>
       <c r="H15">
-        <v>18.71616215446715</v>
+        <v>18.08931679549069</v>
       </c>
       <c r="I15">
-        <v>35.84151055257846</v>
+        <v>25.17797977049789</v>
       </c>
       <c r="J15">
-        <v>4.268310110473247</v>
+        <v>9.096575001526524</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>53.68036036866015</v>
+        <v>34.84950047782856</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.10572194723177</v>
+        <v>11.09164806961416</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.74158120927642</v>
+        <v>7.990440079975575</v>
       </c>
       <c r="E16">
-        <v>7.829460588263649</v>
+        <v>11.83924299275825</v>
       </c>
       <c r="F16">
-        <v>44.55208627378541</v>
+        <v>38.6784647678716</v>
       </c>
       <c r="G16">
-        <v>72.12569186794802</v>
+        <v>49.87745422451905</v>
       </c>
       <c r="H16">
-        <v>17.95571916112967</v>
+        <v>18.04558017434333</v>
       </c>
       <c r="I16">
-        <v>34.74836584227326</v>
+        <v>24.77769679230438</v>
       </c>
       <c r="J16">
-        <v>4.361245575491349</v>
+        <v>9.128816009223222</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>51.88828876695236</v>
+        <v>34.08687210519246</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.74324694946588</v>
+        <v>10.9216331384878</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.659754161670355</v>
+        <v>7.973243488998534</v>
       </c>
       <c r="E17">
-        <v>7.810416420006636</v>
+        <v>11.84634878354496</v>
       </c>
       <c r="F17">
-        <v>43.39957563478114</v>
+        <v>38.56518411305367</v>
       </c>
       <c r="G17">
-        <v>70.23411614128628</v>
+        <v>49.50581442271176</v>
       </c>
       <c r="H17">
-        <v>17.49029156337456</v>
+        <v>18.02060076896718</v>
       </c>
       <c r="I17">
-        <v>34.0710517310329</v>
+        <v>24.53045525353447</v>
       </c>
       <c r="J17">
-        <v>4.41903504920994</v>
+        <v>9.149029131202401</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>50.7665243881687</v>
+        <v>33.61007827046247</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.53204486086281</v>
+        <v>10.82254815809527</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.612713380657294</v>
+        <v>7.96333021886257</v>
       </c>
       <c r="E18">
-        <v>7.799790734866948</v>
+        <v>11.85061925301404</v>
       </c>
       <c r="F18">
-        <v>42.7381050886405</v>
+        <v>38.50172890691206</v>
       </c>
       <c r="G18">
-        <v>69.14620983019577</v>
+        <v>49.29343778476781</v>
       </c>
       <c r="H18">
-        <v>17.2227802357999</v>
+        <v>18.00691375237964</v>
       </c>
       <c r="I18">
-        <v>33.67895276231548</v>
+        <v>24.38768790322158</v>
       </c>
       <c r="J18">
-        <v>4.452552224429681</v>
+        <v>9.160815102889277</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>50.11288273888146</v>
+        <v>33.33261178905103</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.46006493787413</v>
+        <v>10.78877854557276</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.596787667546465</v>
+        <v>7.959970016627967</v>
       </c>
       <c r="E19">
-        <v>7.796249732320787</v>
+        <v>11.85209669070552</v>
       </c>
       <c r="F19">
-        <v>42.51434406611833</v>
+        <v>38.48053718381007</v>
       </c>
       <c r="G19">
-        <v>68.77780369301897</v>
+        <v>49.22177602711771</v>
       </c>
       <c r="H19">
-        <v>17.13222051273067</v>
+        <v>18.00239641616339</v>
       </c>
       <c r="I19">
-        <v>33.54575631463542</v>
+        <v>24.33925862988065</v>
       </c>
       <c r="J19">
-        <v>4.463947772512217</v>
+        <v>9.164833126316925</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>49.89010431096231</v>
+        <v>33.23811816172233</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.78211315867247</v>
+        <v>10.93986611525645</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.6684616642214</v>
+        <v>7.975076417186814</v>
       </c>
       <c r="E20">
-        <v>7.812409837938071</v>
+        <v>11.84557338525213</v>
       </c>
       <c r="F20">
-        <v>43.52210458641498</v>
+        <v>38.57706724589312</v>
       </c>
       <c r="G20">
-        <v>70.43545169103206</v>
+        <v>49.54523515680938</v>
       </c>
       <c r="H20">
-        <v>17.53981311361289</v>
+        <v>18.0231894392344</v>
       </c>
       <c r="I20">
-        <v>34.14341320379441</v>
+        <v>24.55683386850562</v>
       </c>
       <c r="J20">
-        <v>4.412854326119939</v>
+        <v>9.146860865978608</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>50.88680642411826</v>
+        <v>33.66116921524561</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.83201945490257</v>
+        <v>11.43189478396071</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.909786877018353</v>
+        <v>8.025560032972948</v>
       </c>
       <c r="E21">
-        <v>7.870596099258073</v>
+        <v>11.82584502456535</v>
       </c>
       <c r="F21">
-        <v>46.92864280250165</v>
+        <v>38.92163511151067</v>
       </c>
       <c r="G21">
-        <v>76.01191730265391</v>
+        <v>50.6479055202831</v>
       </c>
       <c r="H21">
-        <v>18.91301436895</v>
+        <v>18.10118095627297</v>
       </c>
       <c r="I21">
-        <v>36.12172741260976</v>
+        <v>25.28076007558967</v>
       </c>
       <c r="J21">
-        <v>4.244563059331409</v>
+        <v>9.088385026089053</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>54.13629634138538</v>
+        <v>35.04358394289395</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.49502217935705</v>
+        <v>11.74159913602485</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.068470059163707</v>
+        <v>8.058337627807965</v>
       </c>
       <c r="E22">
-        <v>7.911449603970246</v>
+        <v>11.8145776940517</v>
       </c>
       <c r="F22">
-        <v>49.17957979354183</v>
+        <v>39.16171607484322</v>
       </c>
       <c r="G22">
-        <v>79.6770520393531</v>
+        <v>51.3790319283717</v>
       </c>
       <c r="H22">
-        <v>19.81702103875565</v>
+        <v>18.15820741831463</v>
       </c>
       <c r="I22">
-        <v>37.39375454754919</v>
+        <v>25.74771400564447</v>
       </c>
       <c r="J22">
-        <v>4.137232705915462</v>
+        <v>9.051585172510082</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>56.18959427812266</v>
+        <v>35.91711498730143</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.14323134937655</v>
+        <v>11.57740345071119</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.983645930896534</v>
+        <v>8.040864291029274</v>
       </c>
       <c r="E23">
-        <v>7.889392358253209</v>
+        <v>11.82044281818832</v>
       </c>
       <c r="F23">
-        <v>47.9752849409328</v>
+        <v>39.03223222297667</v>
       </c>
       <c r="G23">
-        <v>77.71789346232151</v>
+        <v>50.98794623386522</v>
       </c>
       <c r="H23">
-        <v>19.33366237259457</v>
+        <v>18.12721795725363</v>
       </c>
       <c r="I23">
-        <v>36.71666455063094</v>
+        <v>25.49911134734642</v>
       </c>
       <c r="J23">
-        <v>4.194262564853676</v>
+        <v>9.071096559994837</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>55.09990352155957</v>
+        <v>35.45368995365267</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.76455050982158</v>
+        <v>10.93162716006264</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.664525001318109</v>
+        <v>7.974247833379971</v>
       </c>
       <c r="E24">
-        <v>7.811507606490875</v>
+        <v>11.84592336571461</v>
       </c>
       <c r="F24">
-        <v>43.46670586737991</v>
+        <v>38.57168967295031</v>
       </c>
       <c r="G24">
-        <v>70.34442937913457</v>
+        <v>49.52740902309515</v>
       </c>
       <c r="H24">
-        <v>17.51742425371524</v>
+        <v>18.02201700211462</v>
       </c>
       <c r="I24">
-        <v>34.11070701278477</v>
+        <v>24.54491002961143</v>
       </c>
       <c r="J24">
-        <v>4.415647719343585</v>
+        <v>9.147840624118343</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>50.83245413842339</v>
+        <v>33.63808142361886</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.17317359406428</v>
+        <v>10.18574457617505</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.32105422237262</v>
+        <v>7.901551197580489</v>
       </c>
       <c r="E25">
-        <v>7.740056341933696</v>
+        <v>11.88042390462244</v>
       </c>
       <c r="F25">
-        <v>38.70455364313095</v>
+        <v>38.14002509494034</v>
       </c>
       <c r="G25">
-        <v>62.38841719884007</v>
+        <v>48.00584574097135</v>
       </c>
       <c r="H25">
-        <v>15.65752205630018</v>
+        <v>17.93453995002665</v>
       </c>
       <c r="I25">
-        <v>31.20325707459177</v>
+        <v>23.49504671995851</v>
       </c>
       <c r="J25">
-        <v>4.665068027247725</v>
+        <v>9.236739835391012</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>45.9051287561354</v>
+        <v>31.55726515844424</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_170/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.596329634041382</v>
+        <v>13.90726397962237</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.847387925946922</v>
+        <v>6.066295689713035</v>
       </c>
       <c r="E2">
-        <v>11.9118966710953</v>
+        <v>7.698532126086764</v>
       </c>
       <c r="F2">
-        <v>37.87901270813921</v>
+        <v>35.53408165187872</v>
       </c>
       <c r="G2">
-        <v>46.94130587132261</v>
+        <v>56.45660044880185</v>
       </c>
       <c r="H2">
-        <v>17.89236940006412</v>
+        <v>14.56974486808781</v>
       </c>
       <c r="I2">
-        <v>22.711319792529</v>
+        <v>28.97665878377829</v>
       </c>
       <c r="J2">
-        <v>9.307506806713441</v>
+        <v>4.857421256757443</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.9279915337514</v>
+        <v>41.97801377405319</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.173258789433474</v>
+        <v>12.98879835190039</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.810326985520167</v>
+        <v>5.891783176134017</v>
       </c>
       <c r="E3">
-        <v>11.93703004693193</v>
+        <v>7.677369037350728</v>
       </c>
       <c r="F3">
-        <v>37.73774504488436</v>
+        <v>33.4211565619005</v>
       </c>
       <c r="G3">
-        <v>46.25926200953842</v>
+        <v>52.47541137626932</v>
       </c>
       <c r="H3">
-        <v>17.87754352438132</v>
+        <v>13.85857055314746</v>
       </c>
       <c r="I3">
-        <v>22.17744026971472</v>
+        <v>27.41568655487734</v>
       </c>
       <c r="J3">
-        <v>9.358804115323196</v>
+        <v>4.993160655354932</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.76838881605268</v>
+        <v>39.12160269831877</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.902469131019926</v>
+        <v>12.39452949310025</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.78741155923098</v>
+        <v>5.783601532809278</v>
       </c>
       <c r="E4">
-        <v>11.95434399973242</v>
+        <v>7.667820235050839</v>
       </c>
       <c r="F4">
-        <v>37.66856512642453</v>
+        <v>32.14088297626703</v>
       </c>
       <c r="G4">
-        <v>45.86136672078449</v>
+        <v>50.00345294871342</v>
       </c>
       <c r="H4">
-        <v>17.87516887825283</v>
+        <v>13.43430669549537</v>
       </c>
       <c r="I4">
-        <v>21.84971307132503</v>
+        <v>26.4330546021838</v>
       </c>
       <c r="J4">
-        <v>9.391955545518341</v>
+        <v>5.079171329512639</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.0311666719889</v>
+        <v>37.26918705746401</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.78946025951371</v>
+        <v>12.14468147627891</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.778035479297832</v>
+        <v>5.739251373950093</v>
       </c>
       <c r="E5">
-        <v>11.9618736521008</v>
+        <v>7.664794523674072</v>
       </c>
       <c r="F5">
-        <v>37.64478074656034</v>
+        <v>31.62358360042047</v>
       </c>
       <c r="G5">
-        <v>45.70467724289239</v>
+        <v>48.98918164610014</v>
       </c>
       <c r="H5">
-        <v>17.87588356724648</v>
+        <v>13.26452526728824</v>
       </c>
       <c r="I5">
-        <v>21.71640672218503</v>
+        <v>26.02687012769906</v>
       </c>
       <c r="J5">
-        <v>9.405882251024639</v>
+        <v>5.114895480698483</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.72476649264869</v>
+        <v>36.48920425391628</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.77053817205319</v>
+        <v>12.10272937678745</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.776476369590624</v>
+        <v>5.731871012821162</v>
       </c>
       <c r="E6">
-        <v>11.96315260211498</v>
+        <v>7.664344326062035</v>
       </c>
       <c r="F6">
-        <v>37.64109713832853</v>
+        <v>31.53796053908677</v>
       </c>
       <c r="G6">
-        <v>45.67899425202508</v>
+        <v>48.8203507394224</v>
       </c>
       <c r="H6">
-        <v>17.87610353904637</v>
+        <v>13.23652146586739</v>
       </c>
       <c r="I6">
-        <v>21.69429285050338</v>
+        <v>25.95908758175482</v>
       </c>
       <c r="J6">
-        <v>9.408220003314021</v>
+        <v>5.120868301537672</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>27.67353959582947</v>
+        <v>36.35816323916833</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.900955663553747</v>
+        <v>12.39119110510669</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.787285260359809</v>
+        <v>5.783004487487277</v>
       </c>
       <c r="E7">
-        <v>11.95444362663496</v>
+        <v>7.667775927106596</v>
       </c>
       <c r="F7">
-        <v>37.66822653505635</v>
+        <v>32.13388829509228</v>
       </c>
       <c r="G7">
-        <v>45.85923120218094</v>
+        <v>49.9898019405029</v>
       </c>
       <c r="H7">
-        <v>17.87517171877072</v>
+        <v>13.43200435670491</v>
       </c>
       <c r="I7">
-        <v>21.84791395894061</v>
+        <v>26.4275994448372</v>
       </c>
       <c r="J7">
-        <v>9.392141675048563</v>
+        <v>5.079650382396144</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28.02705813327772</v>
+        <v>37.25877000945828</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.45280450203725</v>
+        <v>13.59683531498179</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.834643900507891</v>
+        <v>6.006331174370612</v>
       </c>
       <c r="E8">
-        <v>11.9201725733219</v>
+        <v>7.690519943974065</v>
       </c>
       <c r="F8">
-        <v>37.82665666855829</v>
+        <v>34.80202390674202</v>
       </c>
       <c r="G8">
-        <v>46.70193124954226</v>
+        <v>55.0894694268889</v>
       </c>
       <c r="H8">
-        <v>17.88585570704038</v>
+        <v>14.32193950509012</v>
       </c>
       <c r="I8">
-        <v>22.52735521546734</v>
+        <v>28.44362136651669</v>
       </c>
       <c r="J8">
-        <v>9.324851380234985</v>
+        <v>4.903672511465256</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.53360128079446</v>
+        <v>41.01337849800207</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.44341174515645</v>
+        <v>15.72359108719045</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.926143913846621</v>
+        <v>6.436914717054758</v>
       </c>
       <c r="E9">
-        <v>11.86786178624856</v>
+        <v>7.762416422284281</v>
       </c>
       <c r="F9">
-        <v>38.2766472741239</v>
+        <v>40.2731947579413</v>
       </c>
       <c r="G9">
-        <v>48.51035149687426</v>
+        <v>65.07611614234334</v>
       </c>
       <c r="H9">
-        <v>17.96054065678829</v>
+        <v>16.22319159927769</v>
       </c>
       <c r="I9">
-        <v>23.85085537357724</v>
+        <v>32.19596599936545</v>
       </c>
       <c r="J9">
-        <v>9.205972277547968</v>
+        <v>4.579681547672291</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>32.27389189080321</v>
+        <v>47.61015143096035</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.11087104498522</v>
+        <v>17.14671801713998</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.992399254050572</v>
+        <v>6.750923642188108</v>
       </c>
       <c r="E10">
-        <v>11.8384570016868</v>
+        <v>7.831677833701595</v>
       </c>
       <c r="F10">
-        <v>38.69162054632616</v>
+        <v>44.68382339747524</v>
       </c>
       <c r="G10">
-        <v>49.92004175892642</v>
+        <v>72.34160340473834</v>
       </c>
       <c r="H10">
-        <v>18.04852271078686</v>
+        <v>18.00886776898011</v>
       </c>
       <c r="I10">
-        <v>24.80582862285623</v>
+        <v>34.82531390586174</v>
       </c>
       <c r="J10">
-        <v>9.12653119815162</v>
+        <v>4.354689573533706</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>34.14083581628081</v>
+        <v>52.01516173872509</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.40069902186998</v>
+        <v>17.76535468378514</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.02230108982735</v>
+        <v>6.894106851533231</v>
       </c>
       <c r="E11">
-        <v>11.82702849641727</v>
+        <v>7.866659295958985</v>
       </c>
       <c r="F11">
-        <v>38.8984355465104</v>
+        <v>46.70668478802249</v>
       </c>
       <c r="G11">
-        <v>50.57581542848442</v>
+        <v>75.64972233909319</v>
       </c>
       <c r="H11">
-        <v>18.09577415239711</v>
+        <v>18.82373782969689</v>
       </c>
       <c r="I11">
-        <v>25.23419270438996</v>
+        <v>35.99478501672969</v>
       </c>
       <c r="J11">
-        <v>9.092091459741027</v>
+        <v>4.255316646086443</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>34.95573371323803</v>
+        <v>53.92991854632935</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.50841786426322</v>
+        <v>17.99562902845192</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.033587358904832</v>
+        <v>6.948479593492183</v>
       </c>
       <c r="E12">
-        <v>11.82297986671853</v>
+        <v>7.880392385214306</v>
       </c>
       <c r="F12">
-        <v>38.97930953899657</v>
+        <v>47.4767176266547</v>
       </c>
       <c r="G12">
-        <v>50.82595957760634</v>
+        <v>76.90564807725522</v>
       </c>
       <c r="H12">
-        <v>18.11470623746566</v>
+        <v>19.13335483848909</v>
       </c>
       <c r="I12">
-        <v>25.39535805210319</v>
+        <v>36.43401928388006</v>
       </c>
       <c r="J12">
-        <v>9.079293140830437</v>
+        <v>4.21813878064636</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>35.25918984104987</v>
+        <v>54.64284327128236</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.48530976476248</v>
+        <v>17.94621023167894</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.031158343043151</v>
+        <v>6.936760648989096</v>
       </c>
       <c r="E13">
-        <v>11.82383941510549</v>
+        <v>7.877413345051394</v>
       </c>
       <c r="F13">
-        <v>38.96177878583146</v>
+        <v>47.31066691971282</v>
       </c>
       <c r="G13">
-        <v>50.77201000240821</v>
+        <v>76.63496675295573</v>
       </c>
       <c r="H13">
-        <v>18.11058269133033</v>
+        <v>19.06661406946316</v>
       </c>
       <c r="I13">
-        <v>25.36069742270268</v>
+        <v>36.33957874701167</v>
       </c>
       <c r="J13">
-        <v>9.082038683751742</v>
+        <v>4.226125062804834</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>35.1940658441995</v>
+        <v>54.48983082035939</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.40960209946328</v>
+        <v>17.7843785469641</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.023230372991586</v>
+        <v>6.898576358876447</v>
       </c>
       <c r="E14">
-        <v>11.82668982561478</v>
+        <v>7.867779469225635</v>
       </c>
       <c r="F14">
-        <v>38.90503807520692</v>
+        <v>46.76994408804116</v>
       </c>
       <c r="G14">
-        <v>50.59636005454512</v>
+        <v>75.75296511983446</v>
       </c>
       <c r="H14">
-        <v>18.09731089257746</v>
+        <v>18.84918475102273</v>
       </c>
       <c r="I14">
-        <v>25.24747381292164</v>
+        <v>36.03099201604556</v>
       </c>
       <c r="J14">
-        <v>9.091033664457097</v>
+        <v>4.252248751671443</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>34.98080296113932</v>
+        <v>53.98881062491063</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.36296296900496</v>
+        <v>17.68473703962643</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.018369376525964</v>
+        <v>6.875210882471269</v>
       </c>
       <c r="E15">
-        <v>11.82847210043459</v>
+        <v>7.861941315428328</v>
       </c>
       <c r="F15">
-        <v>38.87061462050481</v>
+        <v>46.43931651230911</v>
       </c>
       <c r="G15">
-        <v>50.48899807316653</v>
+        <v>75.21322725157729</v>
       </c>
       <c r="H15">
-        <v>18.08931679549069</v>
+        <v>18.71616215446722</v>
       </c>
       <c r="I15">
-        <v>25.17797977049789</v>
+        <v>35.84151055257834</v>
       </c>
       <c r="J15">
-        <v>9.096575001526524</v>
+        <v>4.268310110473265</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>34.84950047782856</v>
+        <v>53.68036036866008</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.09164806961416</v>
+        <v>17.10572194723177</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.990440079975575</v>
+        <v>6.741581209276371</v>
       </c>
       <c r="E16">
-        <v>11.83924299275825</v>
+        <v>7.829460588263651</v>
       </c>
       <c r="F16">
-        <v>38.6784647678716</v>
+        <v>44.55208627378532</v>
       </c>
       <c r="G16">
-        <v>49.87745422451905</v>
+        <v>72.12569186794778</v>
       </c>
       <c r="H16">
-        <v>18.04558017434333</v>
+        <v>17.95571916112966</v>
       </c>
       <c r="I16">
-        <v>24.77769679230438</v>
+        <v>34.74836584227333</v>
       </c>
       <c r="J16">
-        <v>9.128816009223222</v>
+        <v>4.361245575491345</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>34.08687210519246</v>
+        <v>51.88828876695237</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.9216331384878</v>
+        <v>16.7432469494659</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.973243488998534</v>
+        <v>6.65975416167035</v>
       </c>
       <c r="E17">
-        <v>11.84634878354496</v>
+        <v>7.810416420006643</v>
       </c>
       <c r="F17">
-        <v>38.56518411305367</v>
+        <v>43.39957563478114</v>
       </c>
       <c r="G17">
-        <v>49.50581442271176</v>
+        <v>70.23411614128624</v>
       </c>
       <c r="H17">
-        <v>18.02060076896718</v>
+        <v>17.49029156337454</v>
       </c>
       <c r="I17">
-        <v>24.53045525353447</v>
+        <v>34.0710517310329</v>
       </c>
       <c r="J17">
-        <v>9.149029131202401</v>
+        <v>4.419035049209938</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>33.61007827046247</v>
+        <v>50.7665243881687</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.82254815809527</v>
+        <v>16.53204486086285</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.96333021886257</v>
+        <v>6.612713380657284</v>
       </c>
       <c r="E18">
-        <v>11.85061925301404</v>
+        <v>7.799790734866951</v>
       </c>
       <c r="F18">
-        <v>38.50172890691206</v>
+        <v>42.73810508864051</v>
       </c>
       <c r="G18">
-        <v>49.29343778476781</v>
+        <v>69.14620983019579</v>
       </c>
       <c r="H18">
-        <v>18.00691375237964</v>
+        <v>17.22278023579991</v>
       </c>
       <c r="I18">
-        <v>24.38768790322158</v>
+        <v>33.67895276231553</v>
       </c>
       <c r="J18">
-        <v>9.160815102889277</v>
+        <v>4.452552224429684</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>33.33261178905103</v>
+        <v>50.1128827388815</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.78877854557276</v>
+        <v>16.46006493787415</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.959970016627967</v>
+        <v>6.596787667546648</v>
       </c>
       <c r="E19">
-        <v>11.85209669070552</v>
+        <v>7.796249732320828</v>
       </c>
       <c r="F19">
-        <v>38.48053718381007</v>
+        <v>42.51434406611831</v>
       </c>
       <c r="G19">
-        <v>49.22177602711771</v>
+        <v>68.77780369301895</v>
       </c>
       <c r="H19">
-        <v>18.00239641616339</v>
+        <v>17.13222051273068</v>
       </c>
       <c r="I19">
-        <v>24.33925862988065</v>
+        <v>33.54575631463537</v>
       </c>
       <c r="J19">
-        <v>9.164833126316925</v>
+        <v>4.463947772512149</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>33.23811816172233</v>
+        <v>49.89010431096228</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.93986611525645</v>
+        <v>16.78211315867245</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.975076417186814</v>
+        <v>6.668461664221336</v>
       </c>
       <c r="E20">
-        <v>11.84557338525213</v>
+        <v>7.812409837938053</v>
       </c>
       <c r="F20">
-        <v>38.57706724589312</v>
+        <v>43.52210458641503</v>
       </c>
       <c r="G20">
-        <v>49.54523515680938</v>
+        <v>70.43545169103206</v>
       </c>
       <c r="H20">
-        <v>18.0231894392344</v>
+        <v>17.5398131136129</v>
       </c>
       <c r="I20">
-        <v>24.55683386850562</v>
+        <v>34.14341320379434</v>
       </c>
       <c r="J20">
-        <v>9.146860865978608</v>
+        <v>4.412854326119935</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>33.66116921524561</v>
+        <v>50.88680642411825</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.43189478396071</v>
+        <v>17.83201945490256</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.025560032972948</v>
+        <v>6.909786877018512</v>
       </c>
       <c r="E21">
-        <v>11.82584502456535</v>
+        <v>7.870596099258174</v>
       </c>
       <c r="F21">
-        <v>38.92163511151067</v>
+        <v>46.92864280250173</v>
       </c>
       <c r="G21">
-        <v>50.6479055202831</v>
+        <v>76.01191730265413</v>
       </c>
       <c r="H21">
-        <v>18.10118095627297</v>
+        <v>18.91301436895006</v>
       </c>
       <c r="I21">
-        <v>25.28076007558967</v>
+        <v>36.12172741260979</v>
       </c>
       <c r="J21">
-        <v>9.088385026089053</v>
+        <v>4.244563059331415</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>35.04358394289395</v>
+        <v>54.1362963413854</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.74159913602485</v>
+        <v>18.49502217935705</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.058337627807965</v>
+        <v>7.068470059163761</v>
       </c>
       <c r="E22">
-        <v>11.8145776940517</v>
+        <v>7.911449603970305</v>
       </c>
       <c r="F22">
-        <v>39.16171607484322</v>
+        <v>49.17957979354178</v>
       </c>
       <c r="G22">
-        <v>51.3790319283717</v>
+        <v>79.67705203935304</v>
       </c>
       <c r="H22">
-        <v>18.15820741831463</v>
+        <v>19.81702103875563</v>
       </c>
       <c r="I22">
-        <v>25.74771400564447</v>
+        <v>37.39375454754922</v>
       </c>
       <c r="J22">
-        <v>9.051585172510082</v>
+        <v>4.137232705915439</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>35.91711498730143</v>
+        <v>56.18959427812268</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.57740345071119</v>
+        <v>18.14323134937657</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.040864291029274</v>
+        <v>6.983645930896485</v>
       </c>
       <c r="E23">
-        <v>11.82044281818832</v>
+        <v>7.889392358253226</v>
       </c>
       <c r="F23">
-        <v>39.03223222297667</v>
+        <v>47.97528494093278</v>
       </c>
       <c r="G23">
-        <v>50.98794623386522</v>
+        <v>77.71789346232156</v>
       </c>
       <c r="H23">
-        <v>18.12721795725363</v>
+        <v>19.33366237259454</v>
       </c>
       <c r="I23">
-        <v>25.49911134734642</v>
+        <v>36.71666455063091</v>
       </c>
       <c r="J23">
-        <v>9.071096559994837</v>
+        <v>4.194262564853705</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>35.45368995365267</v>
+        <v>55.09990352155955</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.93162716006264</v>
+        <v>16.76455050982155</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.974247833379971</v>
+        <v>6.664525001318109</v>
       </c>
       <c r="E24">
-        <v>11.84592336571461</v>
+        <v>7.811507606490778</v>
       </c>
       <c r="F24">
-        <v>38.57168967295031</v>
+        <v>43.46670586738007</v>
       </c>
       <c r="G24">
-        <v>49.52740902309515</v>
+        <v>70.34442937913487</v>
       </c>
       <c r="H24">
-        <v>18.02201700211462</v>
+        <v>17.51742425371527</v>
       </c>
       <c r="I24">
-        <v>24.54491002961143</v>
+        <v>34.11070701278467</v>
       </c>
       <c r="J24">
-        <v>9.147840624118343</v>
+        <v>4.415647719343576</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>33.63808142361886</v>
+        <v>50.83245413842334</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.18574457617505</v>
+        <v>15.17317359406435</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.901551197580489</v>
+        <v>6.321054222372574</v>
       </c>
       <c r="E25">
-        <v>11.88042390462244</v>
+        <v>7.740056341933768</v>
       </c>
       <c r="F25">
-        <v>38.14002509494034</v>
+        <v>38.704553643131</v>
       </c>
       <c r="G25">
-        <v>48.00584574097135</v>
+        <v>62.38841719884041</v>
       </c>
       <c r="H25">
-        <v>17.93453995002665</v>
+        <v>15.65752205630016</v>
       </c>
       <c r="I25">
-        <v>23.49504671995851</v>
+        <v>31.20325707459182</v>
       </c>
       <c r="J25">
-        <v>9.236739835391012</v>
+        <v>4.665068027247758</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>31.55726515844424</v>
+        <v>45.90512875613551</v>
       </c>
       <c r="N25">
         <v>0</v>
